--- a/data/trans_dic/P33B_R5-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R5-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.0141780035689929</v>
+        <v>0.01417800356899291</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.0252422894897263</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006315187984239007</v>
+        <v>0.004674660474112769</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01532482427333933</v>
+        <v>0.01530749326403716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01273425907045877</v>
+        <v>0.012475655602188</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03092247811886149</v>
+        <v>0.02886525917636648</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03981633134294496</v>
+        <v>0.04005206530184955</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02861470236219347</v>
+        <v>0.03016565069301785</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.0450395069566343</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1223116426673095</v>
+        <v>0.1223116426673096</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.08425889990251793</v>
+        <v>0.08425889990251795</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02833556712052211</v>
+        <v>0.02856817996919418</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1012746575948843</v>
+        <v>0.09970439334955686</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07033845067802016</v>
+        <v>0.07020811632882062</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06792252733105207</v>
+        <v>0.06752537681257895</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1473626176969317</v>
+        <v>0.1484997934041245</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09963370112855953</v>
+        <v>0.1009444578002153</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.02226653071389369</v>
+        <v>0.02226653071389368</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.07608903545549969</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01157182182158316</v>
+        <v>0.01118408009204086</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05598630300968777</v>
+        <v>0.05807286251857834</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03828969385833045</v>
+        <v>0.03938563465641638</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03937822641994893</v>
+        <v>0.04063732516732062</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1011466989481241</v>
+        <v>0.1016685087723575</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06454150884561612</v>
+        <v>0.06538273710875467</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.06780131335238065</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.09381887608044545</v>
+        <v>0.09381887608044547</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.08160877881920688</v>
+        <v>0.08160877881920686</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.045189196354951</v>
+        <v>0.04392252393192234</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07534260542964687</v>
+        <v>0.07318955971791595</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06555435115232976</v>
+        <v>0.06503025741716986</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1003001534311454</v>
+        <v>0.1048380684810189</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1177507305900438</v>
+        <v>0.1176986432459051</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1022355957478064</v>
+        <v>0.1000662269472883</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.04626386816799564</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.07633664467358818</v>
+        <v>0.07633664467358817</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.06203588132418306</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02691013419814449</v>
+        <v>0.02639856897031465</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05698310351031781</v>
+        <v>0.05733310239649324</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04699887218016274</v>
+        <v>0.04630573620813151</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07217626193748225</v>
+        <v>0.0730324047609017</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1013283946710169</v>
+        <v>0.104096365910543</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07986013717741565</v>
+        <v>0.07894136597896667</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.06002545337610268</v>
+        <v>0.06002545337610267</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.1660766315091805</v>
+        <v>0.1660766315091804</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.1123608423744213</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04060866201320139</v>
+        <v>0.04102699524810272</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1344276622454825</v>
+        <v>0.1376258594792363</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09436417940322778</v>
+        <v>0.09405203020131077</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08446893679336662</v>
+        <v>0.08749937208910311</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1999992385953632</v>
+        <v>0.2072913998423352</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1344622347067622</v>
+        <v>0.1326390523194039</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.06194306884202709</v>
+        <v>0.06194306884202708</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.1163129671930297</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.09009104208170497</v>
+        <v>0.09009104208170499</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04507197661227622</v>
+        <v>0.04441866476233778</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09580193267301916</v>
+        <v>0.09617701415574716</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0767567320058626</v>
+        <v>0.07628565478212808</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08766849068379849</v>
+        <v>0.08830723426398122</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1373577040952345</v>
+        <v>0.1403251293544288</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1080660567832597</v>
+        <v>0.1072131887473298</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1128973080520532</v>
+        <v>0.1119394100895602</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1984088709899675</v>
+        <v>0.1956660448079273</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1622138569651203</v>
+        <v>0.1604857427784401</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1580298108261447</v>
+        <v>0.1573375593380175</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2450374193335518</v>
+        <v>0.2439911286496654</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.19381601118614</v>
+        <v>0.1924023561237763</v>
       </c>
     </row>
     <row r="28">
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.06728886791613733</v>
+        <v>0.06728886791613735</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.1270432282657868</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.0979976729734347</v>
+        <v>0.09799767297343469</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.059364567372551</v>
+        <v>0.05932125314776258</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1179660631391724</v>
+        <v>0.1181773772745416</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0917854513726757</v>
+        <v>0.09227477570672978</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.07670424878315606</v>
+        <v>0.07595926641736855</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1361308690695757</v>
+        <v>0.136338579129646</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1041034884735832</v>
+        <v>0.1047102960569844</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2014</v>
+        <v>1490</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4844</v>
+        <v>4838</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>8085</v>
+        <v>7921</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9859</v>
+        <v>9204</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12584</v>
+        <v>12659</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>18168</v>
+        <v>19152</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15008</v>
+        <v>15131</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>55286</v>
+        <v>54428</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>75653</v>
+        <v>75513</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35976</v>
+        <v>35765</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>80445</v>
+        <v>81066</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>107162</v>
+        <v>108572</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3657</v>
+        <v>3534</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19952</v>
+        <v>20696</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>25745</v>
+        <v>26482</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12443</v>
+        <v>12841</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>36047</v>
+        <v>36233</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43396</v>
+        <v>43962</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16862</v>
+        <v>16389</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>31792</v>
+        <v>30883</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>52123</v>
+        <v>51706</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>37427</v>
+        <v>39120</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>49686</v>
+        <v>49664</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>81288</v>
+        <v>79563</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5534</v>
+        <v>5429</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>12925</v>
+        <v>13004</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20326</v>
+        <v>20027</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14844</v>
+        <v>15020</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>22984</v>
+        <v>23611</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>34539</v>
+        <v>34141</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>10993</v>
+        <v>11106</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>35455</v>
+        <v>36299</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>50434</v>
+        <v>50267</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>22866</v>
+        <v>23687</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>52750</v>
+        <v>54673</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>71864</v>
+        <v>70890</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>32389</v>
+        <v>31919</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>73900</v>
+        <v>74190</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>114367</v>
+        <v>113665</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>62999</v>
+        <v>63458</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>105956</v>
+        <v>108245</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>161018</v>
+        <v>159747</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>90100</v>
+        <v>89336</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>164800</v>
+        <v>162522</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>264195</v>
+        <v>261380</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>126119</v>
+        <v>125567</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>203530</v>
+        <v>202661</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>315664</v>
+        <v>313362</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>209598</v>
+        <v>209445</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>440352</v>
+        <v>441141</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>666690</v>
+        <v>670244</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>270819</v>
+        <v>268189</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>508159</v>
+        <v>508935</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>756162</v>
+        <v>760570</v>
       </c>
     </row>
     <row r="40">
